--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2831477.656207058</v>
+        <v>2829225.576495851</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.2402584038916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329267</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
-        <v>114.2656173771023</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>42.34070507092606</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>49.70958308288861</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>201.6622187863191</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771011</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788177681</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893544</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417134</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>127.5379405516738</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763371</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722644</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440906</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,10 +2327,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417134</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>80.33989744908955</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962485</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>3120.355548834272</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>3120.355548834272</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>3120.355548834272</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>3120.355548834272</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>3120.355548834272</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936255</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792725</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.124011696101</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.124011696101</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.124011696101</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>977.3357590978571</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>566.3498543082496</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2774041532461</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760223</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4720,19 +4720,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1084.69702428429</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>795.2798542473295</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>795.2798542473295</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.2798542473295</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239599</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718711</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>641.846136238212</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>472.909953310305</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979691</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.793313897969</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123325</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>513.853600740068</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,49 +5990,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6309,16 +6309,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>198.027470314254</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6479,19 +6479,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556308</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.229103921944</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431595</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>39.70888054695405</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187526</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346281</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328103</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>65.0811505738417</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756979.6521184652</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184649</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442546</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027078e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551212</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
+        <v>90354.06702314477</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314483</v>
       </c>
-      <c r="D4" t="n">
-        <v>90354.0670231448</v>
-      </c>
       <c r="E4" t="n">
+        <v>11167.03225179331</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179336</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179339</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179342</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179355</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
         <v>11167.03225179354</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849673.2931740967</v>
+        <v>-849673.2931740968</v>
       </c>
       <c r="C6" t="n">
-        <v>479071.4525534959</v>
+        <v>479071.4525534954</v>
       </c>
       <c r="D6" t="n">
         <v>479071.4525534954</v>
       </c>
       <c r="E6" t="n">
-        <v>228193.9208611996</v>
+        <v>228159.1829357628</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="G6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="H6" t="n">
-        <v>553606.3826685541</v>
+        <v>553571.644743119</v>
       </c>
       <c r="I6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431188</v>
       </c>
       <c r="J6" t="n">
-        <v>336075.1802712768</v>
+        <v>336040.4423458417</v>
       </c>
       <c r="K6" t="n">
-        <v>553606.382668554</v>
+        <v>553571.644743119</v>
       </c>
       <c r="L6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431188</v>
       </c>
       <c r="M6" t="n">
-        <v>468551.3547330421</v>
+        <v>468516.6168076063</v>
       </c>
       <c r="N6" t="n">
-        <v>553606.3826685543</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="O6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431188</v>
       </c>
       <c r="P6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431187</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022918</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.49358325958895</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393351</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
-        <v>75.50340795433958</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>252.2670593163944</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>202.4280602409394</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.255751353301065</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.472878077069442e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28336,13 +28336,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.637841752077283e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-4.357187632409143e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-4.802484763547866e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-9.654070646351529e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29047,10 +29047,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-1.637841752077283e-12</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>422.1299181110977</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>402.2342772868828</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642889</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>283.5755383312235</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>263.6798975070086</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066207</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
